--- a/Documentation/risk assessment turtlebot.xlsx
+++ b/Documentation/risk assessment turtlebot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remco\Documents\MinorAR_MultiRobot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addie\Documents\fontys\Minor AR\project\MinorAR_MultiRobot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Section 1 &amp; 2'!$A$1:$J$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Section 3'!$A$1:$J$225</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Section 3'!$A$1:$J$229</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="381">
   <si>
     <t>Hazard Identification</t>
   </si>
@@ -1474,7 +1474,10 @@
     <t xml:space="preserve">Probably Li-Ion Battery, standard = 2200 mAh (extended = 4400 mAh) </t>
   </si>
   <si>
-    <t>Product falls off from +/- 30cm height on weak body part: 3*0,1*2*1=0,6                                             Turtlebot drives into person: 0,01*2*1*3=0,06                                                                 Person walks into Turtlebot: 0,25*3*0,5*4=0,75                                                              Person trips over Turtlebot and has really bad luck: 40*0,05*3*0,5=3                         Person tips over Turtlebot and falls on top of it: 25*0,3*2*1=15</t>
+    <t xml:space="preserve">Product falls off from +/- 30cm height on weak body part: 3*0,1*2*1=0,6       </t>
+  </si>
+  <si>
+    <t>Turtlebot drives into person: 0,01*2*1*3=0,06                                                                 Person walks into Turtlebot: 0,25*3*0,5*4=0,75                                                              Person trips over Turtlebot and has really bad luck: 40*0,05*3*0,5=3                         Person tips over Turtlebot and falls on top of it: 25*0,3*2*1=15</t>
   </si>
 </sst>
 </file>
@@ -1888,6 +1891,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1897,8 +1936,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1906,11 +1963,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1918,71 +1990,230 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1998,234 +2229,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2354,13 +2357,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2404,13 +2407,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2454,13 +2457,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2974,262 +2977,262 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="69">
         <v>1</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="155">
+      <c r="G6" s="73">
         <v>42831</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="69" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="155">
+      <c r="G9" s="69"/>
+      <c r="H9" s="73">
         <v>42831</v>
       </c>
-      <c r="I9" s="65"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="155">
+      <c r="G10" s="69"/>
+      <c r="H10" s="73">
         <v>42831</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="12" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64" t="s">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64" t="s">
+      <c r="G13" s="74"/>
+      <c r="H13" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="64"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="69"/>
     </row>
     <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="68"/>
+      <c r="D20" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51">
+      <c r="C23" s="68"/>
+      <c r="D23" s="65">
         <v>1</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
@@ -3244,104 +3247,104 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="68"/>
+      <c r="D29" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51" t="s">
+      <c r="C30" s="68"/>
+      <c r="D30" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="68"/>
+      <c r="D31" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51" t="s">
+      <c r="C32" s="68"/>
+      <c r="D32" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51" t="s">
+      <c r="C33" s="68"/>
+      <c r="D33" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
     </row>
     <row r="34" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
@@ -3354,50 +3357,50 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="71"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68" t="s">
+      <c r="C37" s="72"/>
+      <c r="D37" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="70"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -3406,34 +3409,34 @@
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="47"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="55" t="s">
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="53" t="s">
+      <c r="G40" s="63"/>
+      <c r="H40" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="54"/>
+      <c r="I40" s="77"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
@@ -3456,152 +3459,152 @@
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
     </row>
     <row r="44" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6"/>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
     </row>
     <row r="46" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6"/>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
     </row>
     <row r="47" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
     </row>
     <row r="48" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6"/>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="52" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
     </row>
     <row r="53" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
     </row>
     <row r="54" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
     </row>
     <row r="55" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
     </row>
     <row r="56" spans="1:9" ht="387.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3615,192 +3618,268 @@
     </row>
     <row r="62" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6"/>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
     </row>
     <row r="63" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6"/>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
     </row>
     <row r="64" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6"/>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
     </row>
     <row r="65" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
     </row>
     <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6"/>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
     </row>
     <row r="67" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63" t="s">
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63" t="s">
+      <c r="G69" s="54"/>
+      <c r="H69" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="63"/>
+      <c r="I69" s="54"/>
     </row>
     <row r="70" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74" t="s">
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74" t="s">
+      <c r="G70" s="55"/>
+      <c r="H70" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I70" s="74"/>
+      <c r="I70" s="55"/>
     </row>
     <row r="71" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="60" t="s">
+      <c r="D71" s="50"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="62"/>
-      <c r="H71" s="60" t="s">
+      <c r="G71" s="51"/>
+      <c r="H71" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I71" s="62"/>
+      <c r="I71" s="51"/>
     </row>
     <row r="72" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="60" t="s">
+      <c r="D72" s="50"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="62"/>
-      <c r="H72" s="60" t="s">
+      <c r="G72" s="51"/>
+      <c r="H72" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I72" s="62"/>
+      <c r="I72" s="51"/>
     </row>
     <row r="74" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
     </row>
     <row r="75" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-      <c r="I75" s="48"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
     </row>
     <row r="76" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
     <mergeCell ref="K45:M47"/>
     <mergeCell ref="C71:E71"/>
     <mergeCell ref="F71:G71"/>
@@ -3817,82 +3896,6 @@
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
@@ -3914,10 +3917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T223"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B83" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3931,137 +3934,137 @@
   <sheetData>
     <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="K6" s="156" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="K6" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
     </row>
     <row r="7" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
     </row>
     <row r="9" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
     </row>
     <row r="10" spans="1:20" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
@@ -4084,14 +4087,14 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -4107,40 +4110,40 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
@@ -4154,421 +4157,421 @@
     </row>
     <row r="20" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="153" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78" t="s">
+      <c r="C24" s="154"/>
+      <c r="D24" s="154" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="155"/>
       <c r="L24" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="51" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
       <c r="L25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="51" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
       <c r="L26" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="51" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
       <c r="L27" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="51" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
       <c r="L28" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
       <c r="L29" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="80" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="81"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="157"/>
       <c r="L30" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
       <c r="L31" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="80" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="81"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
       <c r="L35" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="51" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="52"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="66"/>
       <c r="L36" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="51" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="66"/>
       <c r="L37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="82"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="152"/>
     </row>
     <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="51" t="s">
+      <c r="C39" s="76"/>
+      <c r="D39" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
       <c r="L39" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="51" t="s">
+      <c r="C40" s="76"/>
+      <c r="D40" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="52"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="66"/>
       <c r="L40" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="51" t="s">
+      <c r="C41" s="76"/>
+      <c r="D41" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="66"/>
       <c r="L41" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="51" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="52"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="66"/>
       <c r="L42" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="51" t="s">
+      <c r="C43" s="76"/>
+      <c r="D43" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="52"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="66"/>
       <c r="L43" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="51" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="52"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="66"/>
       <c r="L46" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="51" t="s">
+      <c r="C47" s="76"/>
+      <c r="D47" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="66"/>
       <c r="L47" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="76"/>
+      <c r="D48" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="52"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="66"/>
       <c r="L48" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="51" t="s">
+      <c r="C49" s="76"/>
+      <c r="D49" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="52"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
       <c r="L49" t="s">
         <v>185</v>
       </c>
@@ -4585,2334 +4588,2175 @@
     </row>
     <row r="51" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
     </row>
     <row r="53" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6"/>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="6"/>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="47"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78" t="s">
+      <c r="C55" s="154"/>
+      <c r="D55" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="79"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="155"/>
       <c r="L55" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6"/>
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="51" t="s">
+      <c r="C56" s="76"/>
+      <c r="D56" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="52"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="66"/>
       <c r="L56" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6"/>
-      <c r="B57" s="75" t="s">
+      <c r="B57" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="51" t="s">
+      <c r="C57" s="76"/>
+      <c r="D57" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="52"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="66"/>
       <c r="L57" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6"/>
-      <c r="B58" s="75" t="s">
+      <c r="B58" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="51" t="s">
+      <c r="C58" s="76"/>
+      <c r="D58" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="52"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="66"/>
       <c r="L58" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6"/>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="51" t="s">
+      <c r="C59" s="76"/>
+      <c r="D59" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="52"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="66"/>
       <c r="L59" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6"/>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="151" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="51" t="s">
+      <c r="C60" s="76"/>
+      <c r="D60" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="52"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="66"/>
       <c r="L60" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6"/>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="151" t="s">
         <v>210</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="51" t="s">
+      <c r="C61" s="76"/>
+      <c r="D61" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="52"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="66"/>
       <c r="L61" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6"/>
-      <c r="B62" s="75" t="s">
+      <c r="B62" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="51" t="s">
+      <c r="C62" s="76"/>
+      <c r="D62" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="52"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="66"/>
       <c r="L62" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="47"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59"/>
     </row>
     <row r="65" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="52"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="66"/>
     </row>
     <row r="66" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="80" t="s">
+      <c r="C66" s="76"/>
+      <c r="D66" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="81"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="157"/>
       <c r="L66" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="51" t="s">
+      <c r="C67" s="76"/>
+      <c r="D67" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="52"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="66"/>
       <c r="L67" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="68" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="51" t="s">
+      <c r="C68" s="76"/>
+      <c r="D68" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="52"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="66"/>
       <c r="L68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="82"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="152"/>
     </row>
     <row r="70" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="51" t="s">
+      <c r="C70" s="76"/>
+      <c r="D70" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="52"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="66"/>
       <c r="L70" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="75" t="s">
+      <c r="B71" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="51" t="s">
+      <c r="C71" s="76"/>
+      <c r="D71" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="52"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="66"/>
       <c r="L71" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="75" t="s">
+      <c r="B72" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="51" t="s">
+      <c r="C72" s="76"/>
+      <c r="D72" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="66"/>
       <c r="L72" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="51" t="s">
+      <c r="C73" s="76"/>
+      <c r="D73" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="52"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
       <c r="L73" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="74" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="75" t="s">
+      <c r="B74" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="51" t="s">
+      <c r="C74" s="76"/>
+      <c r="D74" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="52"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="66"/>
       <c r="L74" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="47"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="59"/>
     </row>
     <row r="77" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="75" t="s">
+      <c r="B77" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="53"/>
-      <c r="D77" s="51" t="s">
+      <c r="C77" s="76"/>
+      <c r="D77" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="66"/>
       <c r="L77" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="78" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="75" t="s">
+      <c r="B78" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="51" t="s">
+      <c r="C78" s="76"/>
+      <c r="D78" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="66"/>
       <c r="L78" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="53"/>
-      <c r="D79" s="51" t="s">
+      <c r="C79" s="76"/>
+      <c r="D79" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="66"/>
       <c r="L79" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="75" t="s">
+      <c r="B80" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="53"/>
-      <c r="D80" s="51" t="s">
+      <c r="C80" s="76"/>
+      <c r="D80" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="52"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="66"/>
       <c r="L80" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-    </row>
-    <row r="85" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="48" t="s">
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M85" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="M85" s="157" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="86" t="s">
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="M89" s="46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
-      <c r="I86" s="76"/>
-    </row>
-    <row r="87" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="87" t="s">
+      <c r="C90" s="149"/>
+      <c r="D90" s="149"/>
+      <c r="E90" s="149"/>
+      <c r="F90" s="149"/>
+      <c r="G90" s="149"/>
+      <c r="H90" s="149"/>
+      <c r="I90" s="149"/>
+    </row>
+    <row r="91" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="87"/>
-      <c r="I87" s="87"/>
-    </row>
-    <row r="88" spans="1:13" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="48" t="s">
+      <c r="C91" s="150"/>
+      <c r="D91" s="150"/>
+      <c r="E91" s="150"/>
+      <c r="F91" s="150"/>
+      <c r="G91" s="150"/>
+      <c r="H91" s="150"/>
+      <c r="I91" s="150"/>
+    </row>
+    <row r="92" spans="1:13" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
-    </row>
-    <row r="89" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="48" t="s">
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+    </row>
+    <row r="93" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-    </row>
-    <row r="90" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="48" t="s">
+      <c r="C93" s="53"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+    </row>
+    <row r="94" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="72"/>
-    </row>
-    <row r="91" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="48" t="s">
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+    </row>
+    <row r="95" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
-    </row>
-    <row r="92" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="48" t="s">
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+    </row>
+    <row r="96" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-    </row>
-    <row r="94" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="64" t="s">
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+    </row>
+    <row r="98" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64" t="s">
+      <c r="C99" s="74"/>
+      <c r="D99" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64" t="s">
+      <c r="E99" s="74"/>
+      <c r="F99" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-    </row>
-    <row r="96" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="17"/>
-      <c r="C96" s="18" t="s">
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+    </row>
+    <row r="100" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="17"/>
+      <c r="C100" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="83" t="s">
+      <c r="D100" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="E96" s="83"/>
-      <c r="F96" s="84" t="s">
+      <c r="E100" s="145"/>
+      <c r="F100" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
-    </row>
-    <row r="97" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="19"/>
-      <c r="C97" s="20" t="s">
+      <c r="G100" s="147"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="147"/>
+    </row>
+    <row r="101" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="19"/>
+      <c r="C101" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D97" s="83" t="s">
+      <c r="D101" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="83"/>
-      <c r="F97" s="84" t="s">
+      <c r="E101" s="145"/>
+      <c r="F101" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-    </row>
-    <row r="98" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="19"/>
-      <c r="C98" s="20" t="s">
+      <c r="G101" s="147"/>
+      <c r="H101" s="147"/>
+      <c r="I101" s="147"/>
+    </row>
+    <row r="102" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="19"/>
+      <c r="C102" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="83" t="s">
+      <c r="D102" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="E98" s="83"/>
-      <c r="F98" s="84" t="s">
+      <c r="E102" s="145"/>
+      <c r="F102" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
-      <c r="I98" s="85"/>
-    </row>
-    <row r="99" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="21"/>
-      <c r="C99" s="20" t="s">
+      <c r="G102" s="147"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="147"/>
+    </row>
+    <row r="103" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="21"/>
+      <c r="C103" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D99" s="83" t="s">
+      <c r="D103" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="83"/>
-      <c r="F99" s="84" t="s">
+      <c r="E103" s="145"/>
+      <c r="F103" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-    </row>
-    <row r="100" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="21"/>
-      <c r="C100" s="20" t="s">
+      <c r="G103" s="147"/>
+      <c r="H103" s="147"/>
+      <c r="I103" s="147"/>
+    </row>
+    <row r="104" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="21"/>
+      <c r="C104" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D100" s="83" t="s">
+      <c r="D104" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="E100" s="83"/>
-      <c r="F100" s="84" t="s">
+      <c r="E104" s="145"/>
+      <c r="F104" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-    </row>
-    <row r="101" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="21"/>
-      <c r="C101" s="22" t="s">
+      <c r="G104" s="147"/>
+      <c r="H104" s="147"/>
+      <c r="I104" s="147"/>
+    </row>
+    <row r="105" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="21"/>
+      <c r="C105" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D101" s="83" t="s">
+      <c r="D105" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="E101" s="83"/>
-      <c r="F101" s="84" t="s">
+      <c r="E105" s="145"/>
+      <c r="F105" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="G101" s="85"/>
-      <c r="H101" s="85"/>
-      <c r="I101" s="85"/>
-    </row>
-    <row r="102" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="101" t="s">
+      <c r="G105" s="147"/>
+      <c r="H105" s="147"/>
+      <c r="I105" s="147"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="101"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="101"/>
-      <c r="H102" s="101"/>
-      <c r="I102" s="101"/>
-    </row>
-    <row r="103" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-    </row>
-    <row r="104" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="48" t="s">
+      <c r="C106" s="122"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="122"/>
+      <c r="G106" s="122"/>
+      <c r="H106" s="122"/>
+      <c r="I106" s="122"/>
+    </row>
+    <row r="107" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+    </row>
+    <row r="108" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="72"/>
-      <c r="I104" s="72"/>
-    </row>
-    <row r="105" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="48" t="s">
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+    </row>
+    <row r="109" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-    </row>
-    <row r="106" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="99"/>
-      <c r="B106" s="99"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-    </row>
-    <row r="108" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="100" t="s">
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="53"/>
+    </row>
+    <row r="110" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="83"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+    </row>
+    <row r="112" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="100"/>
-      <c r="C109" s="100"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-    </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-    </row>
-    <row r="111" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="115" t="s">
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="44"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="115"/>
-      <c r="D111" s="115"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="115"/>
-      <c r="G111" s="115"/>
-      <c r="H111" s="23" t="s">
+      <c r="C115" s="120"/>
+      <c r="D115" s="120"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="120"/>
+      <c r="G115" s="120"/>
+      <c r="H115" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I111" s="22" t="s">
+      <c r="I115" s="22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="22" t="s">
+    <row r="116" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="98" t="s">
+      <c r="C116" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="D112" s="98"/>
-      <c r="E112" s="98"/>
-      <c r="F112" s="98"/>
-      <c r="G112" s="107"/>
-      <c r="H112" s="101"/>
-      <c r="I112" s="108"/>
-    </row>
-    <row r="113" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="22" t="s">
+      <c r="D116" s="121"/>
+      <c r="E116" s="121"/>
+      <c r="F116" s="121"/>
+      <c r="G116" s="110"/>
+      <c r="H116" s="122"/>
+      <c r="I116" s="111"/>
+    </row>
+    <row r="117" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="98" t="s">
+      <c r="C117" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="D113" s="98"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="98"/>
-      <c r="G113" s="109"/>
-      <c r="H113" s="110"/>
-      <c r="I113" s="111"/>
-    </row>
-    <row r="114" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="22" t="s">
+      <c r="D117" s="121"/>
+      <c r="E117" s="121"/>
+      <c r="F117" s="121"/>
+      <c r="G117" s="112"/>
+      <c r="H117" s="123"/>
+      <c r="I117" s="113"/>
+    </row>
+    <row r="118" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="98" t="s">
+      <c r="C118" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="D114" s="98"/>
-      <c r="E114" s="98"/>
-      <c r="F114" s="98"/>
-      <c r="G114" s="109"/>
-      <c r="H114" s="110"/>
-      <c r="I114" s="111"/>
-    </row>
-    <row r="115" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="22" t="s">
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
+      <c r="G118" s="112"/>
+      <c r="H118" s="123"/>
+      <c r="I118" s="113"/>
+    </row>
+    <row r="119" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="98" t="s">
+      <c r="C119" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="D115" s="98"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="109"/>
-      <c r="H115" s="110"/>
-      <c r="I115" s="111"/>
-    </row>
-    <row r="116" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="24" t="s">
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="121"/>
+      <c r="G119" s="112"/>
+      <c r="H119" s="123"/>
+      <c r="I119" s="113"/>
+    </row>
+    <row r="120" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="88" t="s">
+      <c r="C120" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="88"/>
-      <c r="E116" s="88"/>
-      <c r="F116" s="89"/>
-      <c r="G116" s="109"/>
-      <c r="H116" s="110"/>
-      <c r="I116" s="111"/>
-    </row>
-    <row r="117" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="25"/>
-      <c r="C117" s="90"/>
-      <c r="D117" s="90"/>
-      <c r="E117" s="90"/>
-      <c r="F117" s="91"/>
-      <c r="G117" s="109"/>
-      <c r="H117" s="110"/>
-      <c r="I117" s="111"/>
-    </row>
-    <row r="118" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="24" t="s">
+      <c r="D120" s="102"/>
+      <c r="E120" s="102"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="112"/>
+      <c r="H120" s="123"/>
+      <c r="I120" s="113"/>
+    </row>
+    <row r="121" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="25"/>
+      <c r="C121" s="108"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="112"/>
+      <c r="H121" s="123"/>
+      <c r="I121" s="113"/>
+    </row>
+    <row r="122" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="92" t="s">
+      <c r="C122" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="D118" s="93"/>
-      <c r="E118" s="93"/>
-      <c r="F118" s="94"/>
-      <c r="G118" s="109"/>
-      <c r="H118" s="110"/>
-      <c r="I118" s="111"/>
-    </row>
-    <row r="119" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="26"/>
-      <c r="C119" s="95"/>
-      <c r="D119" s="96"/>
-      <c r="E119" s="96"/>
-      <c r="F119" s="97"/>
-      <c r="G119" s="112"/>
-      <c r="H119" s="113"/>
-      <c r="I119" s="114"/>
-    </row>
-    <row r="120" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="22" t="s">
+      <c r="D122" s="126"/>
+      <c r="E122" s="126"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="112"/>
+      <c r="H122" s="123"/>
+      <c r="I122" s="113"/>
+    </row>
+    <row r="123" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="26"/>
+      <c r="C123" s="128"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="129"/>
+      <c r="F123" s="130"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="124"/>
+      <c r="I123" s="115"/>
+    </row>
+    <row r="124" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="98" t="s">
+      <c r="C124" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="D120" s="98"/>
-      <c r="E120" s="98"/>
-      <c r="F120" s="98"/>
-      <c r="G120" s="98"/>
-      <c r="H120" s="98"/>
-      <c r="I120" s="98"/>
-    </row>
-    <row r="121" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="22" t="s">
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
+      <c r="G124" s="121"/>
+      <c r="H124" s="121"/>
+      <c r="I124" s="121"/>
+    </row>
+    <row r="125" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="98" t="s">
+      <c r="C125" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="D121" s="98"/>
-      <c r="E121" s="98"/>
-      <c r="F121" s="98"/>
-      <c r="G121" s="98"/>
-      <c r="H121" s="98"/>
-      <c r="I121" s="98"/>
-    </row>
-    <row r="122" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="24" t="s">
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
+      <c r="G125" s="121"/>
+      <c r="H125" s="121"/>
+      <c r="I125" s="121"/>
+    </row>
+    <row r="126" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="102" t="s">
+      <c r="C126" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="D122" s="88"/>
-      <c r="E122" s="88"/>
-      <c r="F122" s="88"/>
-      <c r="G122" s="88"/>
-      <c r="H122" s="88"/>
-      <c r="I122" s="89"/>
-    </row>
-    <row r="123" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="27"/>
-      <c r="C123" s="103"/>
-      <c r="D123" s="104"/>
-      <c r="E123" s="104"/>
-      <c r="F123" s="104"/>
-      <c r="G123" s="104"/>
-      <c r="H123" s="104"/>
-      <c r="I123" s="105"/>
-    </row>
-    <row r="124" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="28"/>
-      <c r="C124" s="106"/>
-      <c r="D124" s="90"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="91"/>
-    </row>
-    <row r="125" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="60" t="s">
+      <c r="D126" s="102"/>
+      <c r="E126" s="102"/>
+      <c r="F126" s="102"/>
+      <c r="G126" s="102"/>
+      <c r="H126" s="102"/>
+      <c r="I126" s="103"/>
+    </row>
+    <row r="127" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="27"/>
+      <c r="C127" s="104"/>
+      <c r="D127" s="105"/>
+      <c r="E127" s="105"/>
+      <c r="F127" s="105"/>
+      <c r="G127" s="105"/>
+      <c r="H127" s="105"/>
+      <c r="I127" s="106"/>
+    </row>
+    <row r="128" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="28"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="108"/>
+      <c r="F128" s="108"/>
+      <c r="G128" s="108"/>
+      <c r="H128" s="108"/>
+      <c r="I128" s="109"/>
+    </row>
+    <row r="129" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C125" s="61"/>
-      <c r="D125" s="116" t="s">
+      <c r="C129" s="50"/>
+      <c r="D129" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="E125" s="116"/>
-      <c r="F125" s="116"/>
-      <c r="G125" s="116"/>
-      <c r="H125" s="116"/>
-      <c r="I125" s="117"/>
-    </row>
-    <row r="126" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="124" t="s">
+      <c r="E129" s="143"/>
+      <c r="F129" s="143"/>
+      <c r="G129" s="143"/>
+      <c r="H129" s="143"/>
+      <c r="I129" s="144"/>
+    </row>
+    <row r="130" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="125"/>
-      <c r="D126" s="125"/>
-      <c r="E126" s="125"/>
-      <c r="F126" s="125"/>
-      <c r="G126" s="125"/>
-      <c r="H126" s="125"/>
-      <c r="I126" s="122"/>
-    </row>
-    <row r="127" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="126" t="s">
+      <c r="C130" s="137"/>
+      <c r="D130" s="137"/>
+      <c r="E130" s="137"/>
+      <c r="F130" s="137"/>
+      <c r="G130" s="137"/>
+      <c r="H130" s="137"/>
+      <c r="I130" s="100"/>
+    </row>
+    <row r="131" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="29">
+      <c r="C131" s="119"/>
+      <c r="D131" s="119"/>
+      <c r="E131" s="29">
         <v>0.5</v>
       </c>
-      <c r="F127" s="127" t="s">
+      <c r="F131" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="G127" s="127"/>
-      <c r="H127" s="127"/>
-      <c r="I127" s="31">
+      <c r="G131" s="119"/>
+      <c r="H131" s="119"/>
+      <c r="I131" s="31">
         <v>0.75</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="128" t="s">
+    <row r="132" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C128" s="129"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="30">
+      <c r="C132" s="89"/>
+      <c r="D132" s="89"/>
+      <c r="E132" s="30">
         <v>1.25</v>
       </c>
-      <c r="F128" s="129" t="s">
+      <c r="F132" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G128" s="129"/>
-      <c r="H128" s="129"/>
-      <c r="I128" s="32">
+      <c r="G132" s="89"/>
+      <c r="H132" s="89"/>
+      <c r="I132" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="130" t="s">
+    <row r="133" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C129" s="131"/>
-      <c r="D129" s="131"/>
-      <c r="E129" s="33">
-        <f>E127*E128*I127*I128</f>
+      <c r="C133" s="91"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="33">
+        <f>E131*E132*I131*I132</f>
         <v>1.875</v>
       </c>
-      <c r="F129" s="131" t="s">
+      <c r="F133" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G129" s="131"/>
-      <c r="H129" s="132" t="s">
+      <c r="G133" s="91"/>
+      <c r="H133" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="I129" s="133"/>
-    </row>
-    <row r="130" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="121" t="s">
+      <c r="I133" s="139"/>
+    </row>
+    <row r="134" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C130" s="123"/>
-      <c r="D130" s="123"/>
-      <c r="E130" s="123"/>
-      <c r="F130" s="123"/>
-      <c r="G130" s="122"/>
-      <c r="H130" s="121" t="s">
+      <c r="C134" s="135"/>
+      <c r="D134" s="135"/>
+      <c r="E134" s="135"/>
+      <c r="F134" s="135"/>
+      <c r="G134" s="100"/>
+      <c r="H134" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="I130" s="122"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B131" s="92" t="s">
+      <c r="I134" s="100"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="C131" s="93"/>
-      <c r="D131" s="93"/>
-      <c r="E131" s="93"/>
-      <c r="F131" s="93"/>
-      <c r="G131" s="94"/>
-      <c r="H131" s="107"/>
-      <c r="I131" s="108"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B132" s="95"/>
-      <c r="C132" s="96"/>
-      <c r="D132" s="96"/>
-      <c r="E132" s="96"/>
-      <c r="F132" s="96"/>
-      <c r="G132" s="97"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="111"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B133" s="118"/>
-      <c r="C133" s="119"/>
-      <c r="D133" s="119"/>
-      <c r="E133" s="119"/>
-      <c r="F133" s="119"/>
-      <c r="G133" s="120"/>
-      <c r="H133" s="112"/>
-      <c r="I133" s="114"/>
-    </row>
-    <row r="134" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="125"/>
-      <c r="D134" s="125"/>
-      <c r="E134" s="125"/>
-      <c r="F134" s="125"/>
-      <c r="G134" s="125"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="122"/>
-    </row>
-    <row r="135" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="C135" s="127"/>
-      <c r="D135" s="127"/>
-      <c r="E135" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F135" s="127" t="s">
-        <v>154</v>
-      </c>
+      <c r="C135" s="126"/>
+      <c r="D135" s="126"/>
+      <c r="E135" s="126"/>
+      <c r="F135" s="126"/>
       <c r="G135" s="127"/>
-      <c r="H135" s="127"/>
-      <c r="I135" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="128" t="s">
-        <v>152</v>
-      </c>
+      <c r="H135" s="110"/>
+      <c r="I135" s="111"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="128"/>
       <c r="C136" s="129"/>
       <c r="D136" s="129"/>
-      <c r="E136" s="30" t="s">
+      <c r="E136" s="129"/>
+      <c r="F136" s="129"/>
+      <c r="G136" s="130"/>
+      <c r="H136" s="112"/>
+      <c r="I136" s="113"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="140"/>
+      <c r="C137" s="141"/>
+      <c r="D137" s="141"/>
+      <c r="E137" s="141"/>
+      <c r="F137" s="141"/>
+      <c r="G137" s="142"/>
+      <c r="H137" s="114"/>
+      <c r="I137" s="115"/>
+    </row>
+    <row r="138" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="137"/>
+      <c r="D138" s="137"/>
+      <c r="E138" s="137"/>
+      <c r="F138" s="137"/>
+      <c r="G138" s="137"/>
+      <c r="H138" s="137"/>
+      <c r="I138" s="100"/>
+    </row>
+    <row r="139" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="119"/>
+      <c r="D139" s="119"/>
+      <c r="E139" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F136" s="129" t="s">
+      <c r="F139" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="G139" s="119"/>
+      <c r="H139" s="119"/>
+      <c r="I139" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="89"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F140" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G136" s="129"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="32" t="s">
+      <c r="G140" s="89"/>
+      <c r="H140" s="89"/>
+      <c r="I140" s="32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="130" t="s">
+    <row r="141" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C137" s="131"/>
-      <c r="D137" s="131"/>
-      <c r="E137" s="33" t="e">
-        <f>E135*E136*I135*I136</f>
+      <c r="C141" s="91"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="33" t="e">
+        <f>E139*E140*I139*I140</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F137" s="131" t="s">
+      <c r="F141" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G137" s="131"/>
-      <c r="H137" s="132" t="s">
+      <c r="G141" s="91"/>
+      <c r="H141" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="I137" s="133"/>
-    </row>
-    <row r="138" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-    </row>
-    <row r="139" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="115" t="s">
+      <c r="I141" s="139"/>
+    </row>
+    <row r="142" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+    </row>
+    <row r="143" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C140" s="115"/>
-      <c r="D140" s="115"/>
-      <c r="E140" s="115"/>
-      <c r="F140" s="115"/>
-      <c r="G140" s="115"/>
-      <c r="H140" s="23" t="s">
+      <c r="C144" s="120"/>
+      <c r="D144" s="120"/>
+      <c r="E144" s="120"/>
+      <c r="F144" s="120"/>
+      <c r="G144" s="120"/>
+      <c r="H144" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I140" s="22" t="s">
+      <c r="I144" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="22" t="s">
+    <row r="145" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="98" t="s">
+      <c r="C145" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="D141" s="98"/>
-      <c r="E141" s="98"/>
-      <c r="F141" s="98"/>
-      <c r="G141" s="107"/>
-      <c r="H141" s="101"/>
-      <c r="I141" s="108"/>
-    </row>
-    <row r="142" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="22" t="s">
+      <c r="D145" s="121"/>
+      <c r="E145" s="121"/>
+      <c r="F145" s="121"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="122"/>
+      <c r="I145" s="111"/>
+    </row>
+    <row r="146" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="98" t="s">
+      <c r="C146" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="D142" s="98"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="109"/>
-      <c r="H142" s="110"/>
-      <c r="I142" s="111"/>
-    </row>
-    <row r="143" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="22" t="s">
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
+      <c r="G146" s="112"/>
+      <c r="H146" s="123"/>
+      <c r="I146" s="113"/>
+    </row>
+    <row r="147" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="98" t="s">
+      <c r="C147" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="D143" s="98"/>
-      <c r="E143" s="98"/>
-      <c r="F143" s="98"/>
-      <c r="G143" s="109"/>
-      <c r="H143" s="110"/>
-      <c r="I143" s="111"/>
-    </row>
-    <row r="144" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="22" t="s">
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="121"/>
+      <c r="G147" s="112"/>
+      <c r="H147" s="123"/>
+      <c r="I147" s="113"/>
+    </row>
+    <row r="148" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="98" t="s">
+      <c r="C148" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="D144" s="98"/>
-      <c r="E144" s="98"/>
-      <c r="F144" s="98"/>
-      <c r="G144" s="109"/>
-      <c r="H144" s="110"/>
-      <c r="I144" s="111"/>
-    </row>
-    <row r="145" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="24" t="s">
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
+      <c r="G148" s="112"/>
+      <c r="H148" s="123"/>
+      <c r="I148" s="113"/>
+    </row>
+    <row r="149" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="88" t="s">
+      <c r="C149" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="D145" s="88"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="89"/>
-      <c r="G145" s="109"/>
-      <c r="H145" s="110"/>
-      <c r="I145" s="111"/>
-    </row>
-    <row r="146" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="25"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="90"/>
-      <c r="E146" s="90"/>
-      <c r="F146" s="91"/>
-      <c r="G146" s="109"/>
-      <c r="H146" s="110"/>
-      <c r="I146" s="111"/>
-    </row>
-    <row r="147" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="24" t="s">
+      <c r="D149" s="102"/>
+      <c r="E149" s="102"/>
+      <c r="F149" s="103"/>
+      <c r="G149" s="112"/>
+      <c r="H149" s="123"/>
+      <c r="I149" s="113"/>
+    </row>
+    <row r="150" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="25"/>
+      <c r="C150" s="108"/>
+      <c r="D150" s="108"/>
+      <c r="E150" s="108"/>
+      <c r="F150" s="109"/>
+      <c r="G150" s="112"/>
+      <c r="H150" s="123"/>
+      <c r="I150" s="113"/>
+    </row>
+    <row r="151" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C147" s="92" t="s">
+      <c r="C151" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="D147" s="93"/>
-      <c r="E147" s="93"/>
-      <c r="F147" s="94"/>
-      <c r="G147" s="109"/>
-      <c r="H147" s="110"/>
-      <c r="I147" s="111"/>
-    </row>
-    <row r="148" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="26"/>
-      <c r="C148" s="95"/>
-      <c r="D148" s="96"/>
-      <c r="E148" s="96"/>
-      <c r="F148" s="97"/>
-      <c r="G148" s="112"/>
-      <c r="H148" s="113"/>
-      <c r="I148" s="114"/>
-    </row>
-    <row r="149" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="22" t="s">
+      <c r="D151" s="126"/>
+      <c r="E151" s="126"/>
+      <c r="F151" s="127"/>
+      <c r="G151" s="112"/>
+      <c r="H151" s="123"/>
+      <c r="I151" s="113"/>
+    </row>
+    <row r="152" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="26"/>
+      <c r="C152" s="128"/>
+      <c r="D152" s="129"/>
+      <c r="E152" s="129"/>
+      <c r="F152" s="130"/>
+      <c r="G152" s="114"/>
+      <c r="H152" s="124"/>
+      <c r="I152" s="115"/>
+    </row>
+    <row r="153" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="98" t="s">
+      <c r="C153" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="D149" s="98"/>
-      <c r="E149" s="98"/>
-      <c r="F149" s="98"/>
-      <c r="G149" s="98"/>
-      <c r="H149" s="98"/>
-      <c r="I149" s="98"/>
-    </row>
-    <row r="150" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="22" t="s">
+      <c r="D153" s="121"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
+      <c r="G153" s="121"/>
+      <c r="H153" s="121"/>
+      <c r="I153" s="121"/>
+    </row>
+    <row r="154" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="98" t="s">
+      <c r="C154" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="D150" s="98"/>
-      <c r="E150" s="98"/>
-      <c r="F150" s="98"/>
-      <c r="G150" s="98"/>
-      <c r="H150" s="98"/>
-      <c r="I150" s="98"/>
-    </row>
-    <row r="151" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="24" t="s">
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="121"/>
+      <c r="H154" s="121"/>
+      <c r="I154" s="121"/>
+    </row>
+    <row r="155" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C151" s="102" t="s">
+      <c r="C155" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="D151" s="88"/>
-      <c r="E151" s="88"/>
-      <c r="F151" s="88"/>
-      <c r="G151" s="88"/>
-      <c r="H151" s="88"/>
-      <c r="I151" s="89"/>
-    </row>
-    <row r="152" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="27"/>
-      <c r="C152" s="103"/>
-      <c r="D152" s="104"/>
-      <c r="E152" s="104"/>
-      <c r="F152" s="104"/>
-      <c r="G152" s="104"/>
-      <c r="H152" s="104"/>
-      <c r="I152" s="105"/>
-    </row>
-    <row r="153" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="28"/>
-      <c r="C153" s="106"/>
-      <c r="D153" s="90"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="91"/>
-    </row>
-    <row r="154" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="136" t="s">
+      <c r="D155" s="102"/>
+      <c r="E155" s="102"/>
+      <c r="F155" s="102"/>
+      <c r="G155" s="102"/>
+      <c r="H155" s="102"/>
+      <c r="I155" s="103"/>
+    </row>
+    <row r="156" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="27"/>
+      <c r="C156" s="104"/>
+      <c r="D156" s="105"/>
+      <c r="E156" s="105"/>
+      <c r="F156" s="105"/>
+      <c r="G156" s="105"/>
+      <c r="H156" s="105"/>
+      <c r="I156" s="106"/>
+    </row>
+    <row r="157" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="28"/>
+      <c r="C157" s="107"/>
+      <c r="D157" s="108"/>
+      <c r="E157" s="108"/>
+      <c r="F157" s="108"/>
+      <c r="G157" s="108"/>
+      <c r="H157" s="108"/>
+      <c r="I157" s="109"/>
+    </row>
+    <row r="158" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="C154" s="137"/>
-      <c r="D154" s="138" t="s">
+      <c r="C158" s="132"/>
+      <c r="D158" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="E154" s="138"/>
-      <c r="F154" s="138"/>
-      <c r="G154" s="138"/>
-      <c r="H154" s="138"/>
-      <c r="I154" s="139"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B155" s="124" t="s">
+      <c r="E158" s="133"/>
+      <c r="F158" s="133"/>
+      <c r="G158" s="133"/>
+      <c r="H158" s="133"/>
+      <c r="I158" s="134"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="125"/>
-      <c r="D155" s="125"/>
-      <c r="E155" s="125"/>
-      <c r="F155" s="125"/>
-      <c r="G155" s="125"/>
-      <c r="H155" s="125"/>
-      <c r="I155" s="122"/>
-    </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="126" t="s">
+      <c r="C159" s="137"/>
+      <c r="D159" s="137"/>
+      <c r="E159" s="137"/>
+      <c r="F159" s="137"/>
+      <c r="G159" s="137"/>
+      <c r="H159" s="137"/>
+      <c r="I159" s="100"/>
+    </row>
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="127"/>
-      <c r="D156" s="127"/>
-      <c r="E156" s="29">
+      <c r="C160" s="119"/>
+      <c r="D160" s="119"/>
+      <c r="E160" s="29">
         <v>0.5</v>
       </c>
-      <c r="F156" s="127" t="s">
+      <c r="F160" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="G156" s="127"/>
-      <c r="H156" s="127"/>
-      <c r="I156" s="31">
+      <c r="G160" s="119"/>
+      <c r="H160" s="119"/>
+      <c r="I160" s="31">
         <v>2.5</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="128" t="s">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C157" s="129"/>
-      <c r="D157" s="129"/>
-      <c r="E157" s="30">
+      <c r="C161" s="89"/>
+      <c r="D161" s="89"/>
+      <c r="E161" s="30">
         <v>2.5</v>
       </c>
-      <c r="F157" s="129" t="s">
+      <c r="F161" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G157" s="129"/>
-      <c r="H157" s="129"/>
-      <c r="I157" s="32">
+      <c r="G161" s="89"/>
+      <c r="H161" s="89"/>
+      <c r="I161" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="130" t="s">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="131"/>
-      <c r="D158" s="131"/>
-      <c r="E158" s="33">
-        <f>E156*E157*I156*I157</f>
+      <c r="C162" s="91"/>
+      <c r="D162" s="91"/>
+      <c r="E162" s="33">
+        <f>E160*E161*I160*I161</f>
         <v>12.5</v>
       </c>
-      <c r="F158" s="131" t="s">
+      <c r="F162" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G158" s="131"/>
-      <c r="H158" s="134" t="s">
+      <c r="G162" s="91"/>
+      <c r="H162" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="I158" s="135"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B159" s="121" t="s">
+      <c r="I162" s="93"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="123"/>
-      <c r="D159" s="123"/>
-      <c r="E159" s="123"/>
-      <c r="F159" s="123"/>
-      <c r="G159" s="122"/>
-      <c r="H159" s="121" t="s">
+      <c r="C163" s="135"/>
+      <c r="D163" s="135"/>
+      <c r="E163" s="135"/>
+      <c r="F163" s="135"/>
+      <c r="G163" s="100"/>
+      <c r="H163" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="I159" s="122"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B160" s="102" t="s">
+      <c r="I163" s="100"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
-      <c r="E160" s="88"/>
-      <c r="F160" s="88"/>
-      <c r="G160" s="89"/>
-      <c r="H160" s="107"/>
-      <c r="I160" s="108"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B161" s="103"/>
-      <c r="C161" s="104"/>
-      <c r="D161" s="104"/>
-      <c r="E161" s="104"/>
-      <c r="F161" s="104"/>
-      <c r="G161" s="105"/>
-      <c r="H161" s="109"/>
-      <c r="I161" s="111"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B162" s="106"/>
-      <c r="C162" s="90"/>
-      <c r="D162" s="90"/>
-      <c r="E162" s="90"/>
-      <c r="F162" s="90"/>
-      <c r="G162" s="91"/>
-      <c r="H162" s="112"/>
-      <c r="I162" s="114"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B163" s="124" t="s">
+      <c r="C164" s="102"/>
+      <c r="D164" s="102"/>
+      <c r="E164" s="102"/>
+      <c r="F164" s="102"/>
+      <c r="G164" s="103"/>
+      <c r="H164" s="110"/>
+      <c r="I164" s="111"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="104"/>
+      <c r="C165" s="105"/>
+      <c r="D165" s="105"/>
+      <c r="E165" s="105"/>
+      <c r="F165" s="105"/>
+      <c r="G165" s="106"/>
+      <c r="H165" s="112"/>
+      <c r="I165" s="113"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="107"/>
+      <c r="C166" s="108"/>
+      <c r="D166" s="108"/>
+      <c r="E166" s="108"/>
+      <c r="F166" s="108"/>
+      <c r="G166" s="109"/>
+      <c r="H166" s="114"/>
+      <c r="I166" s="115"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C163" s="125"/>
-      <c r="D163" s="125"/>
-      <c r="E163" s="125"/>
-      <c r="F163" s="125"/>
-      <c r="G163" s="125"/>
-      <c r="H163" s="125"/>
-      <c r="I163" s="122"/>
-    </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="126" t="s">
+      <c r="C167" s="137"/>
+      <c r="D167" s="137"/>
+      <c r="E167" s="137"/>
+      <c r="F167" s="137"/>
+      <c r="G167" s="137"/>
+      <c r="H167" s="137"/>
+      <c r="I167" s="100"/>
+    </row>
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C164" s="127"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="29" t="s">
+      <c r="C168" s="119"/>
+      <c r="D168" s="119"/>
+      <c r="E168" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F164" s="127" t="s">
+      <c r="F168" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="G164" s="127"/>
-      <c r="H164" s="127"/>
-      <c r="I164" s="31" t="s">
+      <c r="G168" s="119"/>
+      <c r="H168" s="119"/>
+      <c r="I168" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="128" t="s">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C165" s="129"/>
-      <c r="D165" s="129"/>
-      <c r="E165" s="30" t="s">
+      <c r="C169" s="89"/>
+      <c r="D169" s="89"/>
+      <c r="E169" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F165" s="129" t="s">
+      <c r="F169" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G165" s="129"/>
-      <c r="H165" s="129"/>
-      <c r="I165" s="32" t="s">
+      <c r="G169" s="89"/>
+      <c r="H169" s="89"/>
+      <c r="I169" s="32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="130" t="s">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C166" s="131"/>
-      <c r="D166" s="131"/>
-      <c r="E166" s="33" t="e">
-        <f>E164*E165*I164*I165</f>
+      <c r="C170" s="91"/>
+      <c r="D170" s="91"/>
+      <c r="E170" s="33" t="e">
+        <f>E168*E169*I168*I169</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F166" s="131" t="s">
+      <c r="F170" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G166" s="131"/>
-      <c r="H166" s="134" t="s">
+      <c r="G170" s="91"/>
+      <c r="H170" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="I166" s="135"/>
-    </row>
-    <row r="168" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B169" s="115" t="s">
+      <c r="I170" s="93"/>
+    </row>
+    <row r="172" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C169" s="115"/>
-      <c r="D169" s="115"/>
-      <c r="E169" s="115"/>
-      <c r="F169" s="115"/>
-      <c r="G169" s="115"/>
-      <c r="H169" s="38" t="s">
+      <c r="C173" s="120"/>
+      <c r="D173" s="120"/>
+      <c r="E173" s="120"/>
+      <c r="F173" s="120"/>
+      <c r="G173" s="120"/>
+      <c r="H173" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="I169" s="39" t="s">
+      <c r="I173" s="39" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="39" t="s">
+    <row r="174" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C170" s="98" t="s">
+      <c r="C174" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="D170" s="98"/>
-      <c r="E170" s="98"/>
-      <c r="F170" s="98"/>
-      <c r="G170" s="107"/>
-      <c r="H170" s="101"/>
-      <c r="I170" s="108"/>
-    </row>
-    <row r="171" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="39" t="s">
+      <c r="D174" s="121"/>
+      <c r="E174" s="121"/>
+      <c r="F174" s="121"/>
+      <c r="G174" s="110"/>
+      <c r="H174" s="122"/>
+      <c r="I174" s="111"/>
+    </row>
+    <row r="175" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="98" t="s">
+      <c r="C175" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="D171" s="98"/>
-      <c r="E171" s="98"/>
-      <c r="F171" s="98"/>
-      <c r="G171" s="109"/>
-      <c r="H171" s="110"/>
-      <c r="I171" s="111"/>
-    </row>
-    <row r="172" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="39" t="s">
+      <c r="D175" s="121"/>
+      <c r="E175" s="121"/>
+      <c r="F175" s="121"/>
+      <c r="G175" s="112"/>
+      <c r="H175" s="123"/>
+      <c r="I175" s="113"/>
+    </row>
+    <row r="176" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C172" s="98" t="s">
+      <c r="C176" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="D172" s="98"/>
-      <c r="E172" s="98"/>
-      <c r="F172" s="98"/>
-      <c r="G172" s="109"/>
-      <c r="H172" s="110"/>
-      <c r="I172" s="111"/>
-    </row>
-    <row r="173" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="39" t="s">
+      <c r="D176" s="121"/>
+      <c r="E176" s="121"/>
+      <c r="F176" s="121"/>
+      <c r="G176" s="112"/>
+      <c r="H176" s="123"/>
+      <c r="I176" s="113"/>
+    </row>
+    <row r="177" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C173" s="98" t="s">
+      <c r="C177" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="D173" s="98"/>
-      <c r="E173" s="98"/>
-      <c r="F173" s="98"/>
-      <c r="G173" s="109"/>
-      <c r="H173" s="110"/>
-      <c r="I173" s="111"/>
-    </row>
-    <row r="174" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="24" t="s">
+      <c r="D177" s="121"/>
+      <c r="E177" s="121"/>
+      <c r="F177" s="121"/>
+      <c r="G177" s="112"/>
+      <c r="H177" s="123"/>
+      <c r="I177" s="113"/>
+    </row>
+    <row r="178" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C174" s="88" t="s">
+      <c r="C178" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="D174" s="88"/>
-      <c r="E174" s="88"/>
-      <c r="F174" s="89"/>
-      <c r="G174" s="109"/>
-      <c r="H174" s="110"/>
-      <c r="I174" s="111"/>
-    </row>
-    <row r="175" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="25"/>
-      <c r="C175" s="90"/>
-      <c r="D175" s="90"/>
-      <c r="E175" s="90"/>
-      <c r="F175" s="91"/>
-      <c r="G175" s="109"/>
-      <c r="H175" s="110"/>
-      <c r="I175" s="111"/>
-    </row>
-    <row r="176" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="24" t="s">
+      <c r="D178" s="102"/>
+      <c r="E178" s="102"/>
+      <c r="F178" s="103"/>
+      <c r="G178" s="112"/>
+      <c r="H178" s="123"/>
+      <c r="I178" s="113"/>
+    </row>
+    <row r="179" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="25"/>
+      <c r="C179" s="108"/>
+      <c r="D179" s="108"/>
+      <c r="E179" s="108"/>
+      <c r="F179" s="109"/>
+      <c r="G179" s="112"/>
+      <c r="H179" s="123"/>
+      <c r="I179" s="113"/>
+    </row>
+    <row r="180" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="92" t="s">
+      <c r="C180" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="D176" s="93"/>
-      <c r="E176" s="93"/>
-      <c r="F176" s="94"/>
-      <c r="G176" s="109"/>
-      <c r="H176" s="110"/>
-      <c r="I176" s="111"/>
-    </row>
-    <row r="177" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="26"/>
-      <c r="C177" s="95"/>
-      <c r="D177" s="96"/>
-      <c r="E177" s="96"/>
-      <c r="F177" s="97"/>
-      <c r="G177" s="112"/>
-      <c r="H177" s="113"/>
-      <c r="I177" s="114"/>
-    </row>
-    <row r="178" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="39" t="s">
+      <c r="D180" s="126"/>
+      <c r="E180" s="126"/>
+      <c r="F180" s="127"/>
+      <c r="G180" s="112"/>
+      <c r="H180" s="123"/>
+      <c r="I180" s="113"/>
+    </row>
+    <row r="181" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="26"/>
+      <c r="C181" s="128"/>
+      <c r="D181" s="129"/>
+      <c r="E181" s="129"/>
+      <c r="F181" s="130"/>
+      <c r="G181" s="114"/>
+      <c r="H181" s="124"/>
+      <c r="I181" s="115"/>
+    </row>
+    <row r="182" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="98" t="s">
+      <c r="C182" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="D178" s="98"/>
-      <c r="E178" s="98"/>
-      <c r="F178" s="98"/>
-      <c r="G178" s="98"/>
-      <c r="H178" s="98"/>
-      <c r="I178" s="98"/>
-    </row>
-    <row r="179" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="39" t="s">
+      <c r="D182" s="121"/>
+      <c r="E182" s="121"/>
+      <c r="F182" s="121"/>
+      <c r="G182" s="121"/>
+      <c r="H182" s="121"/>
+      <c r="I182" s="121"/>
+    </row>
+    <row r="183" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C179" s="98" t="s">
+      <c r="C183" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="D179" s="98"/>
-      <c r="E179" s="98"/>
-      <c r="F179" s="98"/>
-      <c r="G179" s="98"/>
-      <c r="H179" s="98"/>
-      <c r="I179" s="98"/>
-    </row>
-    <row r="180" spans="2:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="24" t="s">
+      <c r="D183" s="121"/>
+      <c r="E183" s="121"/>
+      <c r="F183" s="121"/>
+      <c r="G183" s="121"/>
+      <c r="H183" s="121"/>
+      <c r="I183" s="121"/>
+    </row>
+    <row r="184" spans="2:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C180" s="102" t="s">
+      <c r="C184" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="D180" s="88"/>
-      <c r="E180" s="88"/>
-      <c r="F180" s="88"/>
-      <c r="G180" s="88"/>
-      <c r="H180" s="88"/>
-      <c r="I180" s="89"/>
-    </row>
-    <row r="181" spans="2:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="27"/>
-      <c r="C181" s="103"/>
-      <c r="D181" s="104"/>
-      <c r="E181" s="104"/>
-      <c r="F181" s="104"/>
-      <c r="G181" s="104"/>
-      <c r="H181" s="104"/>
-      <c r="I181" s="105"/>
-    </row>
-    <row r="182" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="28"/>
-      <c r="C182" s="106"/>
-      <c r="D182" s="90"/>
-      <c r="E182" s="90"/>
-      <c r="F182" s="90"/>
-      <c r="G182" s="90"/>
-      <c r="H182" s="90"/>
-      <c r="I182" s="91"/>
-    </row>
-    <row r="183" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="136" t="s">
+      <c r="D184" s="102"/>
+      <c r="E184" s="102"/>
+      <c r="F184" s="102"/>
+      <c r="G184" s="102"/>
+      <c r="H184" s="102"/>
+      <c r="I184" s="103"/>
+    </row>
+    <row r="185" spans="2:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="27"/>
+      <c r="C185" s="104"/>
+      <c r="D185" s="105"/>
+      <c r="E185" s="105"/>
+      <c r="F185" s="105"/>
+      <c r="G185" s="105"/>
+      <c r="H185" s="105"/>
+      <c r="I185" s="106"/>
+    </row>
+    <row r="186" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="28"/>
+      <c r="C186" s="107"/>
+      <c r="D186" s="108"/>
+      <c r="E186" s="108"/>
+      <c r="F186" s="108"/>
+      <c r="G186" s="108"/>
+      <c r="H186" s="108"/>
+      <c r="I186" s="109"/>
+    </row>
+    <row r="187" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="C183" s="137"/>
-      <c r="D183" s="138" t="s">
+      <c r="C187" s="132"/>
+      <c r="D187" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="E183" s="138"/>
-      <c r="F183" s="138"/>
-      <c r="G183" s="138"/>
-      <c r="H183" s="138"/>
-      <c r="I183" s="139"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B184" s="140" t="s">
+      <c r="E187" s="133"/>
+      <c r="F187" s="133"/>
+      <c r="G187" s="133"/>
+      <c r="H187" s="133"/>
+      <c r="I187" s="134"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C184" s="141"/>
-      <c r="D184" s="141"/>
-      <c r="E184" s="141"/>
-      <c r="F184" s="141"/>
-      <c r="G184" s="141"/>
-      <c r="H184" s="141"/>
-      <c r="I184" s="142"/>
-    </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="126" t="s">
+      <c r="C188" s="117"/>
+      <c r="D188" s="117"/>
+      <c r="E188" s="117"/>
+      <c r="F188" s="117"/>
+      <c r="G188" s="117"/>
+      <c r="H188" s="117"/>
+      <c r="I188" s="98"/>
+    </row>
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C185" s="127"/>
-      <c r="D185" s="127"/>
-      <c r="E185" s="37">
+      <c r="C189" s="119"/>
+      <c r="D189" s="119"/>
+      <c r="E189" s="37">
         <v>3</v>
       </c>
-      <c r="F185" s="127" t="s">
+      <c r="F189" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="G185" s="127"/>
-      <c r="H185" s="127"/>
-      <c r="I185" s="31">
+      <c r="G189" s="119"/>
+      <c r="H189" s="119"/>
+      <c r="I189" s="31">
         <v>2.5</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="128" t="s">
+    <row r="190" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C186" s="129"/>
-      <c r="D186" s="129"/>
-      <c r="E186" s="35">
+      <c r="C190" s="89"/>
+      <c r="D190" s="89"/>
+      <c r="E190" s="35">
         <v>2.5</v>
       </c>
-      <c r="F186" s="129" t="s">
+      <c r="F190" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G186" s="129"/>
-      <c r="H186" s="129"/>
-      <c r="I186" s="32">
+      <c r="G190" s="89"/>
+      <c r="H190" s="89"/>
+      <c r="I190" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="130" t="s">
+    <row r="191" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C187" s="131"/>
-      <c r="D187" s="131"/>
-      <c r="E187" s="36">
-        <f>E185*E186*I185*I186</f>
+      <c r="C191" s="91"/>
+      <c r="D191" s="91"/>
+      <c r="E191" s="36">
+        <f>E189*E190*I189*I190</f>
         <v>75</v>
       </c>
-      <c r="F187" s="131" t="s">
+      <c r="F191" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G187" s="131"/>
-      <c r="H187" s="143" t="s">
+      <c r="G191" s="91"/>
+      <c r="H191" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="I187" s="144"/>
-    </row>
-    <row r="188" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="145" t="s">
+      <c r="I191" s="95"/>
+    </row>
+    <row r="192" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C188" s="146"/>
-      <c r="D188" s="146"/>
-      <c r="E188" s="146"/>
-      <c r="F188" s="146"/>
-      <c r="G188" s="142"/>
-      <c r="H188" s="121" t="s">
+      <c r="C192" s="97"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="97"/>
+      <c r="F192" s="97"/>
+      <c r="G192" s="98"/>
+      <c r="H192" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="I188" s="122"/>
-    </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="102" t="s">
+      <c r="I192" s="100"/>
+    </row>
+    <row r="193" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="C189" s="88"/>
-      <c r="D189" s="88"/>
-      <c r="E189" s="88"/>
-      <c r="F189" s="88"/>
-      <c r="G189" s="89"/>
-      <c r="H189" s="107"/>
-      <c r="I189" s="108"/>
-    </row>
-    <row r="190" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="103"/>
-      <c r="C190" s="104"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
-      <c r="F190" s="104"/>
-      <c r="G190" s="105"/>
-      <c r="H190" s="109"/>
-      <c r="I190" s="111"/>
-    </row>
-    <row r="191" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="106"/>
-      <c r="C191" s="90"/>
-      <c r="D191" s="90"/>
-      <c r="E191" s="90"/>
-      <c r="F191" s="90"/>
-      <c r="G191" s="91"/>
-      <c r="H191" s="112"/>
-      <c r="I191" s="114"/>
-    </row>
-    <row r="192" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="140" t="s">
+      <c r="C193" s="102"/>
+      <c r="D193" s="102"/>
+      <c r="E193" s="102"/>
+      <c r="F193" s="102"/>
+      <c r="G193" s="103"/>
+      <c r="H193" s="110"/>
+      <c r="I193" s="111"/>
+    </row>
+    <row r="194" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="104"/>
+      <c r="C194" s="105"/>
+      <c r="D194" s="105"/>
+      <c r="E194" s="105"/>
+      <c r="F194" s="105"/>
+      <c r="G194" s="106"/>
+      <c r="H194" s="112"/>
+      <c r="I194" s="113"/>
+    </row>
+    <row r="195" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="107"/>
+      <c r="C195" s="108"/>
+      <c r="D195" s="108"/>
+      <c r="E195" s="108"/>
+      <c r="F195" s="108"/>
+      <c r="G195" s="109"/>
+      <c r="H195" s="114"/>
+      <c r="I195" s="115"/>
+    </row>
+    <row r="196" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C192" s="141"/>
-      <c r="D192" s="141"/>
-      <c r="E192" s="141"/>
-      <c r="F192" s="141"/>
-      <c r="G192" s="141"/>
-      <c r="H192" s="141"/>
-      <c r="I192" s="142"/>
-    </row>
-    <row r="193" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="126" t="s">
+      <c r="C196" s="117"/>
+      <c r="D196" s="117"/>
+      <c r="E196" s="117"/>
+      <c r="F196" s="117"/>
+      <c r="G196" s="117"/>
+      <c r="H196" s="117"/>
+      <c r="I196" s="98"/>
+    </row>
+    <row r="197" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C193" s="127"/>
-      <c r="D193" s="127"/>
-      <c r="E193" s="37">
+      <c r="C197" s="119"/>
+      <c r="D197" s="119"/>
+      <c r="E197" s="37">
         <v>0.5</v>
       </c>
-      <c r="F193" s="127" t="s">
+      <c r="F197" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="G193" s="127"/>
-      <c r="H193" s="127"/>
-      <c r="I193" s="31">
+      <c r="G197" s="119"/>
+      <c r="H197" s="119"/>
+      <c r="I197" s="31">
         <v>2.5</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="128" t="s">
+    <row r="198" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="C194" s="129"/>
-      <c r="D194" s="129"/>
-      <c r="E194" s="35">
+      <c r="C198" s="89"/>
+      <c r="D198" s="89"/>
+      <c r="E198" s="35">
         <v>2.5</v>
       </c>
-      <c r="F194" s="129" t="s">
+      <c r="F198" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G194" s="129"/>
-      <c r="H194" s="129"/>
-      <c r="I194" s="32">
+      <c r="G198" s="89"/>
+      <c r="H198" s="89"/>
+      <c r="I198" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="130" t="s">
+    <row r="199" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C195" s="131"/>
-      <c r="D195" s="131"/>
-      <c r="E195" s="36">
-        <f>E193*E194*I193*I194</f>
+      <c r="C199" s="91"/>
+      <c r="D199" s="91"/>
+      <c r="E199" s="36">
+        <f>E197*E198*I197*I198</f>
         <v>12.5</v>
       </c>
-      <c r="F195" s="131" t="s">
+      <c r="F199" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G195" s="131"/>
-      <c r="H195" s="134" t="s">
+      <c r="G199" s="91"/>
+      <c r="H199" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="I195" s="135"/>
-    </row>
-    <row r="198" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="99" t="s">
+      <c r="I199" s="93"/>
+    </row>
+    <row r="202" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="B199" s="99"/>
-      <c r="C199" s="99"/>
-    </row>
-    <row r="201" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="43" t="s">
+      <c r="B203" s="83"/>
+      <c r="C203" s="83"/>
+    </row>
+    <row r="205" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C201" s="43" t="s">
+      <c r="C205" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D201" s="147" t="s">
+      <c r="D205" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="E201" s="147"/>
-      <c r="F201" s="43" t="s">
+      <c r="E205" s="84"/>
+      <c r="F205" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="G201" s="147" t="s">
+      <c r="G205" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="H201" s="147"/>
-      <c r="I201" s="147"/>
-    </row>
-    <row r="202" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="42">
-        <v>1</v>
-      </c>
-      <c r="C202" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D202" s="148" t="s">
-        <v>169</v>
-      </c>
-      <c r="E202" s="149"/>
-      <c r="F202" s="42">
-        <v>75</v>
-      </c>
-      <c r="G202" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="H202" s="150"/>
-      <c r="I202" s="149"/>
-    </row>
-    <row r="203" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="42">
-        <v>2</v>
-      </c>
-      <c r="C203" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D203" s="148" t="s">
-        <v>150</v>
-      </c>
-      <c r="E203" s="149"/>
-      <c r="F203" s="42">
-        <v>12.5</v>
-      </c>
-      <c r="G203" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="H203" s="150"/>
-      <c r="I203" s="149"/>
-    </row>
-    <row r="204" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="42">
-        <v>3</v>
-      </c>
-      <c r="C204" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D204" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="E204" s="149"/>
-      <c r="F204" s="42">
-        <v>1.875</v>
-      </c>
-      <c r="G204" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="H204" s="150"/>
-      <c r="I204" s="149"/>
-    </row>
-    <row r="205" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="42">
-        <v>4</v>
-      </c>
-      <c r="C205" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="D205" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="E205" s="149"/>
-      <c r="F205" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="G205" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="H205" s="150"/>
-      <c r="I205" s="149"/>
+      <c r="H205" s="84"/>
+      <c r="I205" s="84"/>
     </row>
     <row r="206" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="42">
+        <v>1</v>
+      </c>
+      <c r="C206" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D206" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E206" s="86"/>
+      <c r="F206" s="42">
+        <v>75</v>
+      </c>
+      <c r="G206" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="H206" s="87"/>
+      <c r="I206" s="86"/>
+    </row>
+    <row r="207" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="42">
+        <v>2</v>
+      </c>
+      <c r="C207" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D207" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="E207" s="86"/>
+      <c r="F207" s="42">
+        <v>12.5</v>
+      </c>
+      <c r="G207" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="H207" s="87"/>
+      <c r="I207" s="86"/>
+    </row>
+    <row r="208" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="42">
+        <v>3</v>
+      </c>
+      <c r="C208" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D208" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="E208" s="86"/>
+      <c r="F208" s="42">
+        <v>1.875</v>
+      </c>
+      <c r="G208" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="H208" s="87"/>
+      <c r="I208" s="86"/>
+    </row>
+    <row r="209" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="42">
+        <v>4</v>
+      </c>
+      <c r="C209" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D209" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E209" s="86"/>
+      <c r="F209" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="G209" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="H209" s="87"/>
+      <c r="I209" s="86"/>
+    </row>
+    <row r="210" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="42">
         <v>5</v>
       </c>
-      <c r="C206" s="42"/>
-      <c r="D206" s="148"/>
-      <c r="E206" s="149"/>
-      <c r="F206" s="42"/>
-      <c r="G206" s="148"/>
-      <c r="H206" s="150"/>
-      <c r="I206" s="149"/>
-    </row>
-    <row r="209" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="100" t="s">
+      <c r="C210" s="42"/>
+      <c r="D210" s="85"/>
+      <c r="E210" s="86"/>
+      <c r="F210" s="42"/>
+      <c r="G210" s="85"/>
+      <c r="H210" s="87"/>
+      <c r="I210" s="86"/>
+    </row>
+    <row r="213" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="B209" s="100"/>
-      <c r="C209" s="100"/>
-    </row>
-    <row r="210" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="44"/>
-      <c r="B210" s="152"/>
-      <c r="C210" s="152"/>
-      <c r="D210" s="152"/>
-      <c r="E210" s="152"/>
-      <c r="F210" s="152"/>
-      <c r="G210" s="152"/>
-      <c r="H210" s="152"/>
-      <c r="I210" s="152"/>
-    </row>
-    <row r="211" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="44"/>
-      <c r="B211" s="153" t="s">
+      <c r="B213" s="78"/>
+      <c r="C213" s="78"/>
+    </row>
+    <row r="214" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="44"/>
+      <c r="B214" s="80"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="80"/>
+      <c r="F214" s="80"/>
+      <c r="G214" s="80"/>
+      <c r="H214" s="80"/>
+      <c r="I214" s="80"/>
+    </row>
+    <row r="215" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="44"/>
+      <c r="B215" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="C211" s="153"/>
-      <c r="D211" s="153"/>
-      <c r="E211" s="153"/>
-      <c r="F211" s="153"/>
-      <c r="G211" s="153"/>
-      <c r="H211" s="153"/>
-      <c r="I211" s="153"/>
-    </row>
-    <row r="212" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="44"/>
-      <c r="B212" s="153" t="s">
+      <c r="C215" s="81"/>
+      <c r="D215" s="81"/>
+      <c r="E215" s="81"/>
+      <c r="F215" s="81"/>
+      <c r="G215" s="81"/>
+      <c r="H215" s="81"/>
+      <c r="I215" s="81"/>
+    </row>
+    <row r="216" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="44"/>
+      <c r="B216" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="C212" s="154"/>
-      <c r="D212" s="154"/>
-      <c r="E212" s="154"/>
-      <c r="F212" s="154"/>
-      <c r="G212" s="154"/>
-      <c r="H212" s="154"/>
-      <c r="I212" s="154"/>
-    </row>
-    <row r="213" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="44"/>
-      <c r="B213" s="153" t="s">
+      <c r="C216" s="82"/>
+      <c r="D216" s="82"/>
+      <c r="E216" s="82"/>
+      <c r="F216" s="82"/>
+      <c r="G216" s="82"/>
+      <c r="H216" s="82"/>
+      <c r="I216" s="82"/>
+    </row>
+    <row r="217" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="44"/>
+      <c r="B217" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C213" s="154"/>
-      <c r="D213" s="154"/>
-      <c r="E213" s="154"/>
-      <c r="F213" s="154"/>
-      <c r="G213" s="154"/>
-      <c r="H213" s="154"/>
-      <c r="I213" s="154"/>
-    </row>
-    <row r="214" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="44"/>
-      <c r="B214" s="153" t="s">
+      <c r="C217" s="82"/>
+      <c r="D217" s="82"/>
+      <c r="E217" s="82"/>
+      <c r="F217" s="82"/>
+      <c r="G217" s="82"/>
+      <c r="H217" s="82"/>
+      <c r="I217" s="82"/>
+    </row>
+    <row r="218" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="44"/>
+      <c r="B218" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="C214" s="154"/>
-      <c r="D214" s="154"/>
-      <c r="E214" s="154"/>
-      <c r="F214" s="154"/>
-      <c r="G214" s="154"/>
-      <c r="H214" s="154"/>
-      <c r="I214" s="154"/>
-    </row>
-    <row r="216" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A217" s="100" t="s">
+      <c r="C218" s="82"/>
+      <c r="D218" s="82"/>
+      <c r="E218" s="82"/>
+      <c r="F218" s="82"/>
+      <c r="G218" s="82"/>
+      <c r="H218" s="82"/>
+      <c r="I218" s="82"/>
+    </row>
+    <row r="220" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A221" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="100"/>
-      <c r="C217" s="100"/>
-    </row>
-    <row r="219" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="48" t="s">
+      <c r="B221" s="78"/>
+      <c r="C221" s="78"/>
+    </row>
+    <row r="223" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="C219" s="72"/>
-      <c r="D219" s="72"/>
-      <c r="E219" s="72"/>
-      <c r="F219" s="72"/>
-      <c r="G219" s="72"/>
-      <c r="H219" s="72"/>
-      <c r="I219" s="72"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B220" s="72" t="s">
+      <c r="C223" s="53"/>
+      <c r="D223" s="53"/>
+      <c r="E223" s="53"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="53"/>
+      <c r="H223" s="53"/>
+      <c r="I223" s="53"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B224" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C220" s="72"/>
-      <c r="D220" s="72"/>
-      <c r="E220" s="72"/>
-      <c r="F220" s="72"/>
-      <c r="G220" s="72"/>
-      <c r="H220" s="72"/>
-      <c r="I220" s="72"/>
-    </row>
-    <row r="221" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="151" t="s">
+      <c r="C224" s="53"/>
+      <c r="D224" s="53"/>
+      <c r="E224" s="53"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="53"/>
+      <c r="H224" s="53"/>
+      <c r="I224" s="53"/>
+    </row>
+    <row r="225" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="C221" s="151"/>
-      <c r="D221" s="151"/>
-      <c r="E221" s="151"/>
-      <c r="F221" s="151"/>
-      <c r="G221" s="151"/>
-      <c r="H221" s="151"/>
-      <c r="I221" s="151"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
+      <c r="C225" s="79"/>
+      <c r="D225" s="79"/>
+      <c r="E225" s="79"/>
+      <c r="F225" s="79"/>
+      <c r="G225" s="79"/>
+      <c r="H225" s="79"/>
+      <c r="I225" s="79"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="B220:I220"/>
-    <mergeCell ref="B221:I221"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="B213:I213"/>
-    <mergeCell ref="B214:I214"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="G201:I201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="G206:I206"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="F195:G195"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="B189:G191"/>
-    <mergeCell ref="H189:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="C170:F170"/>
-    <mergeCell ref="G170:I177"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F175"/>
-    <mergeCell ref="C176:F177"/>
-    <mergeCell ref="C178:I178"/>
-    <mergeCell ref="C179:I179"/>
-    <mergeCell ref="C180:I182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="D183:I183"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="B160:G162"/>
-    <mergeCell ref="H160:I162"/>
-    <mergeCell ref="B163:I163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="C149:I149"/>
-    <mergeCell ref="C150:I150"/>
-    <mergeCell ref="C151:I153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:I154"/>
-    <mergeCell ref="B155:I155"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="C141:F141"/>
-    <mergeCell ref="G141:I148"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="C143:F143"/>
-    <mergeCell ref="C144:F144"/>
-    <mergeCell ref="C145:F146"/>
-    <mergeCell ref="C147:F148"/>
-    <mergeCell ref="B134:I134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="B131:G133"/>
-    <mergeCell ref="H131:I133"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B126:I126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="C121:I121"/>
-    <mergeCell ref="C122:I124"/>
-    <mergeCell ref="G112:I119"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="C116:F117"/>
-    <mergeCell ref="C118:F119"/>
-    <mergeCell ref="C120:I120"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="B102:I102"/>
-    <mergeCell ref="B104:I104"/>
-    <mergeCell ref="B105:I105"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:I101"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B90:I90"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="B85:I85"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="B6:I6"/>
@@ -6937,42 +6781,206 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:I60"/>
     <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="B90:I90"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="B92:I92"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="C120:F121"/>
+    <mergeCell ref="C122:F123"/>
+    <mergeCell ref="C124:I124"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:I107"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="C125:I125"/>
+    <mergeCell ref="C126:I128"/>
+    <mergeCell ref="G116:I123"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="B135:G137"/>
+    <mergeCell ref="H135:I137"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B130:I130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="C145:F145"/>
+    <mergeCell ref="G145:I152"/>
+    <mergeCell ref="C146:F146"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F150"/>
+    <mergeCell ref="C151:F152"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="C153:I153"/>
+    <mergeCell ref="C154:I154"/>
+    <mergeCell ref="C155:I157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="B159:I159"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="B164:G166"/>
+    <mergeCell ref="H164:I166"/>
+    <mergeCell ref="B167:I167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="G174:I181"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C178:F179"/>
+    <mergeCell ref="C180:F181"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C183:I183"/>
+    <mergeCell ref="C184:I186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:I187"/>
+    <mergeCell ref="B188:I188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="B193:G195"/>
+    <mergeCell ref="H193:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="G206:I206"/>
+    <mergeCell ref="G207:I207"/>
+    <mergeCell ref="G208:I208"/>
+    <mergeCell ref="G209:I209"/>
+    <mergeCell ref="G210:I210"/>
+    <mergeCell ref="B223:I223"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="B224:I224"/>
+    <mergeCell ref="B225:I225"/>
+    <mergeCell ref="B214:I214"/>
+    <mergeCell ref="B215:I215"/>
+    <mergeCell ref="B216:I216"/>
+    <mergeCell ref="B217:I217"/>
+    <mergeCell ref="B218:I218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="4294967293"/>
@@ -6985,12 +6993,12 @@
     <brk id="19" max="16383" man="1"/>
     <brk id="50" max="16383" man="1"/>
     <brk id="81" max="16383" man="1"/>
-    <brk id="93" max="9" man="1"/>
-    <brk id="107" max="9" man="1"/>
-    <brk id="138" max="9" man="1"/>
-    <brk id="167" max="9" man="1"/>
-    <brk id="197" max="9" man="1"/>
-    <brk id="215" max="16383" man="1"/>
+    <brk id="97" max="9" man="1"/>
+    <brk id="111" max="9" man="1"/>
+    <brk id="142" max="9" man="1"/>
+    <brk id="171" max="9" man="1"/>
+    <brk id="201" max="9" man="1"/>
+    <brk id="219" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
   <legacyDrawingHF r:id="rId2"/>
@@ -7012,911 +7020,923 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="52" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="1:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
     </row>
     <row r="22" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
     </row>
     <row r="23" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
     </row>
     <row r="24" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
     </row>
     <row r="25" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="26" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
     </row>
     <row r="27" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
     </row>
     <row r="28" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
     </row>
     <row r="29" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
     </row>
     <row r="30" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="31" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
     </row>
     <row r="32" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
     </row>
     <row r="34" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="2:11" s="40" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
     </row>
     <row r="39" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
     </row>
     <row r="40" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48" t="s">
+      <c r="C40" s="52"/>
+      <c r="D40" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
     </row>
     <row r="41" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48" t="s">
+      <c r="C41" s="52"/>
+      <c r="D41" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
     </row>
     <row r="42" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48" t="s">
+      <c r="C42" s="52"/>
+      <c r="D42" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
     </row>
     <row r="43" spans="2:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
     </row>
     <row r="44" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
+      <c r="C44" s="52"/>
+      <c r="D44" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
     </row>
     <row r="45" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48" t="s">
+      <c r="C45" s="52"/>
+      <c r="D45" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
     </row>
     <row r="46" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48" t="s">
+      <c r="C46" s="52"/>
+      <c r="D46" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
     </row>
     <row r="47" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48" t="s">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
     </row>
     <row r="48" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
     </row>
     <row r="49" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48" t="s">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
     </row>
     <row r="50" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
     </row>
     <row r="51" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48" t="s">
+      <c r="C51" s="52"/>
+      <c r="D51" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
     </row>
     <row r="52" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48" t="s">
+      <c r="C52" s="52"/>
+      <c r="D52" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
     </row>
     <row r="53" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48" t="s">
+      <c r="C53" s="52"/>
+      <c r="D53" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
     </row>
     <row r="54" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
     </row>
     <row r="55" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48" t="s">
+      <c r="C55" s="52"/>
+      <c r="D55" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
     </row>
     <row r="56" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48" t="s">
+      <c r="C56" s="52"/>
+      <c r="D56" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
     </row>
     <row r="57" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48" t="s">
+      <c r="C57" s="52"/>
+      <c r="D57" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
     </row>
     <row r="58" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48" t="s">
+      <c r="C58" s="52"/>
+      <c r="D58" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
     </row>
     <row r="59" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48" t="s">
+      <c r="C59" s="52"/>
+      <c r="D59" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
     </row>
     <row r="60" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48" t="s">
+      <c r="C60" s="52"/>
+      <c r="D60" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
     </row>
     <row r="61" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48" t="s">
+      <c r="C61" s="52"/>
+      <c r="D61" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
     </row>
     <row r="62" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48" t="s">
+      <c r="C62" s="52"/>
+      <c r="D62" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
     </row>
     <row r="63" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48" t="s">
+      <c r="C63" s="52"/>
+      <c r="D63" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D60:K60"/>
-    <mergeCell ref="D61:K61"/>
-    <mergeCell ref="D62:K62"/>
-    <mergeCell ref="D63:K63"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
-    <mergeCell ref="D58:K58"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="D11:K12"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D5:K6"/>
+    <mergeCell ref="D7:K8"/>
+    <mergeCell ref="D9:K10"/>
+    <mergeCell ref="D15:K16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:K18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:K22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="D23:K24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:K26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:K28"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:K30"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:K32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:K34"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="D35:K36"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:K38"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D43:K43"/>
     <mergeCell ref="D49:K49"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
@@ -7933,46 +7953,34 @@
     <mergeCell ref="D45:K45"/>
     <mergeCell ref="D46:K46"/>
     <mergeCell ref="D47:K47"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:K34"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="D35:K36"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:K38"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:K28"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:K30"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:K32"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:K22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="D23:K24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:K26"/>
-    <mergeCell ref="D15:K16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:K18"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="D11:K12"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D5:K6"/>
-    <mergeCell ref="D7:K8"/>
-    <mergeCell ref="D9:K10"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
+    <mergeCell ref="D58:K58"/>
+    <mergeCell ref="D59:K59"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D60:K60"/>
+    <mergeCell ref="D61:K61"/>
+    <mergeCell ref="D62:K62"/>
+    <mergeCell ref="D63:K63"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
